--- a/data/database/processed/spatial_database.xlsx
+++ b/data/database/processed/spatial_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A3F4DD-31A8-3847-BC6B-1B15ADA7731D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0666D416-2C52-B641-BABF-91BCF179FA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="500" windowWidth="24680" windowHeight="17460" xr2:uid="{577D2ABC-0530-6F46-B68C-57CBA5AE975F}"/>
+    <workbookView xWindow="24660" yWindow="6960" windowWidth="24680" windowHeight="17460" xr2:uid="{577D2ABC-0530-6F46-B68C-57CBA5AE975F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>level</t>
   </si>
@@ -108,18 +108,6 @@
     <t>year2</t>
   </si>
   <si>
-    <t>assumed</t>
-  </si>
-  <si>
-    <t>landings-survey</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>negotiated</t>
-  </si>
-  <si>
     <t>council</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Assumption, undetermined origin</t>
-  </si>
-  <si>
     <t>Addendum III (2011), manager judgement</t>
   </si>
   <si>
@@ -156,20 +141,32 @@
     <t>Undetermined origin</t>
   </si>
   <si>
-    <t>Negotiated</t>
+    <t>Fish spotter</t>
+  </si>
+  <si>
+    <t>CalCOFI larvae</t>
+  </si>
+  <si>
+    <t>Landings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63EAC0-C4B7-0E4F-AD0F-5B71037F58F7}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +517,7 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -543,13 +541,13 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -557,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>1967</v>
@@ -577,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1967</v>
@@ -597,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>1967</v>
@@ -617,16 +615,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
         <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1964</v>
+      </c>
+      <c r="F5">
+        <v>1992</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -634,16 +635,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1951</v>
+      </c>
+      <c r="F6">
+        <v>1985</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -651,16 +655,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
         <v>38</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1964</v>
+      </c>
+      <c r="F7">
+        <v>1992</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -668,67 +675,79 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1951</v>
+      </c>
+      <c r="F8">
+        <v>1985</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1980</v>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1964</v>
       </c>
       <c r="F9">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1980</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1964</v>
       </c>
       <c r="F10">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
         <v>39</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1951</v>
+      </c>
+      <c r="F11">
+        <v>1985</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -736,16 +755,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>2009</v>
+        <v>1980</v>
       </c>
       <c r="F12">
-        <v>2018</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -753,16 +772,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="F13">
-        <v>1992</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -770,121 +789,115 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2009</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="F16">
-        <v>2008</v>
-      </c>
-      <c r="G16">
-        <v>2006</v>
-      </c>
-      <c r="H16">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>1986</v>
+        <v>2018</v>
       </c>
       <c r="F17">
-        <v>2008</v>
-      </c>
-      <c r="G17">
-        <v>2006</v>
-      </c>
-      <c r="H17">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1979</v>
-      </c>
-      <c r="F18">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="F19">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="G19">
+        <v>2006</v>
+      </c>
+      <c r="H19">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1986</v>
@@ -896,6 +909,63 @@
         <v>2006</v>
       </c>
       <c r="H20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1979</v>
+      </c>
+      <c r="F21">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1979</v>
+      </c>
+      <c r="F22">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1986</v>
+      </c>
+      <c r="F23">
+        <v>2008</v>
+      </c>
+      <c r="G23">
+        <v>2006</v>
+      </c>
+      <c r="H23">
         <v>2008</v>
       </c>
     </row>

--- a/data/database/processed/spatial_database.xlsx
+++ b/data/database/processed/spatial_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0666D416-2C52-B641-BABF-91BCF179FA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163CD1F2-A7F5-6444-B263-D5BC455F7A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="6960" windowWidth="24680" windowHeight="17460" xr2:uid="{577D2ABC-0530-6F46-B68C-57CBA5AE975F}"/>
+    <workbookView xWindow="31600" yWindow="1520" windowWidth="24680" windowHeight="17460" xr2:uid="{577D2ABC-0530-6F46-B68C-57CBA5AE975F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>level</t>
   </si>
@@ -148,13 +148,46 @@
   </si>
   <si>
     <t>Landings</t>
+  </si>
+  <si>
+    <t>North Pacific</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Thornyhead rockfish complex</t>
+  </si>
+  <si>
+    <t>Shortraker rockfish</t>
+  </si>
+  <si>
+    <t>Pacific ocean perch</t>
+  </si>
+  <si>
+    <t>Other rockfish complex</t>
+  </si>
+  <si>
+    <t>Northern rockfish</t>
+  </si>
+  <si>
+    <t>Dusky rockfish</t>
+  </si>
+  <si>
+    <t>Blackspotted/rougheye rockfish</t>
+  </si>
+  <si>
+    <t>Based on recent trawl surveys</t>
+  </si>
+  <si>
+    <t>Based on recent trawl and longline surveys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +198,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -189,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63EAC0-C4B7-0E4F-AD0F-5B71037F58F7}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,6 +1009,125 @@
         <v>2008</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
